--- a/target/test-classes/Data.xlsx.xlsx
+++ b/target/test-classes/Data.xlsx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CustomerID</t>
   </si>
@@ -40,13 +40,34 @@
   </si>
   <si>
     <t>WAL-MART 3795 FROZEN</t>
+  </si>
+  <si>
+    <t>Massage</t>
+  </si>
+  <si>
+    <t>712450-SHOP RITE 130</t>
+  </si>
+  <si>
+    <t>712453-SHOP RITE 130 FROZEN</t>
+  </si>
+  <si>
+    <t>712457-RUMBA CUBANA OF TONNELLE CORP</t>
+  </si>
+  <si>
+    <t>712590-FENIX 1 AND 2 /DGH BAKERY CORP</t>
+  </si>
+  <si>
+    <t>712957-WAL-MART #3795</t>
+  </si>
+  <si>
+    <t>712958-WAL-MART 3795 FROZEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +93,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF313131"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -115,12 +148,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,55 +439,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
